--- a/static/main_web3.xlsx
+++ b/static/main_web3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A72"/>
+  <dimension ref="A1:A115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -884,56 +884,357 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://web3.career/join-our-talent-community-kadenallc/54484</t>
+          <t>https://web3.career/lead-web3-qa-engineer-dia/53252</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://web3.career/senior-backend-engineer-omni-network/54483</t>
+          <t>https://web3.career/head-of-engineering-cere-network/54577</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://web3.career/data-engineer-data-platform-contract-near/54481</t>
+          <t>https://web3.career/senior-web3-front-end-developer-invarch-network/53229</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://web3.career/swaps-compliance-officer-falconx/54480</t>
+          <t>https://web3.career/growth-manager-everest-ventures-group-evg/54555</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://web3.career/security-operations-engineer-exodus54/54479</t>
+          <t>https://web3.career/data-engineer-trilitech/54603</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://web3.career/sdk-engineer-decentraland/54478</t>
+          <t>https://web3.career/events-manager-trilitech/54602</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://web3.career/product-operations-senior-associate-commodities-joinpaxos/54477</t>
+          <t>https://web3.career/legal-counsel-regulatory-compliance-swissborg/54601</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://web3.career/operations-lead-project-management-office-moonpay/54476</t>
+          <t>https://web3.career/director-of-sales-hong-kong-bitgo/54600</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://web3.career/senior-developer-relations-engineer-web3-monadlabs/54599</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://web3.career/fp-a-intern-fall-2023-shiftmarkets/54598</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://web3.career/defi-community-manager-shiftmarkets/54597</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://web3.career/solutions-architect-axelarnetwork/54596</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://web3.career/freelance-translator-traditional-chinese-product-localization-crypto-com/54595</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://web3.career/freelance-translator-japanese-product-localization-crypto-com/54594</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://web3.career/freelance-translator-indonesian-product-localization-crypto-com/54593</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://web3.career/freelance-translator-danish-product-localization-crypto-com/54592</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://web3.career/content-marketer-demand-generation-uniswaplabs/54591</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://web3.career/marketing-lead-with-foundation/54590</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://web3.career/finance-accounting-operations-staff-pintu/54589</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://web3.career/site-reliability-engineer-pintu/54588</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://web3.career/senior-network-engineer-ripple/54587</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://web3.career/international-tax-director-ripple/54586</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://web3.career/partner-6-executive-assistant-crypto-a16z/54585</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://web3.career/analytics-engineer-gemini/54584</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://web3.career/group-product-manager-base-ecosystem-base/54583</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://web3.career/commercial-regulatory-legal-counsel-gnosis/54582</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://web3.career/senior-lead-golang-engineer-cere-network/52169</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://web3.career/lead-software-engineer-blockchain-cere-network/52168</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://web3.career/lead-software-engineer-blockchain-cere-network/54749</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://web3.career/head-of-cybersecurity-coinclan-ou/54694</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://web3.career/senior-software-engineer-java-prime-services-okx/54761</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://web3.career/senior-finance-manager-crypto-com/54760</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://web3.career/senior-product-manager-pay-crypto-com/54759</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://web3.career/product-director-operations-platform-okx/54758</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://web3.career/marketing-designer-huddle01/54757</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://web3.career/senior-product-strategy-manager-growth-okx/54756</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://web3.career/senior-product-manager-risk-okx/54755</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://web3.career/product-operations-lead-growth-platform-okx/54754</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://web3.career/senior-product-manager-asset-trading-immutable/54753</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://web3.career/binance-accelerator-program-angel-program-coordinator-binance/54752</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://web3.career/fp-a-manager-chainlink/54751</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://web3.career/direktor-fur-projekte-und-produkte-zaubar/54750</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://web3.career/senior-growth-lead-keyp/53471</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://web3.career/managing-director-partner-theflowerscompany/54748</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://web3.career/vice-president-dittopr/54746</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://web3.career/software-development-engineer-in-test-exchange-pintu/54745</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://web3.career/senior-manager-people-technology-ripple/54744</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://web3.career/senior-full-stack-software-engineer-ripple/54743</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://web3.career/staff-cloud-infrastructure-engineer-gemini/54741</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://web3.career/data-engineer-consumer-experience-gemini/54740</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://web3.career/director-of-marketing-nansen/54762</t>
         </is>
       </c>
     </row>
